--- a/jupyter/data/df0.xlsx
+++ b/jupyter/data/df0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bremen" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berlin" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wien" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Bremen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Berlin" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wien" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,21 +470,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anton</t>
+          <t>Anette</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>15336</v>
+        <v>70285</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9DN1TrQMZa</t>
+          <t>kzötä</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -494,21 +494,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Torben</t>
+          <t>Gerd</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93862</v>
+        <v>87626</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>weYHoöSEYn</t>
+          <t>CF4PuE0</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -518,21 +518,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Isabell</t>
+          <t>Anja</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>50229</v>
+        <v>73777</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DA2fo5w</t>
+          <t>eX7mW6ZB</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -542,21 +542,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Emilie</t>
+          <t>Andreas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>68277</v>
+        <v>88064</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4YyizURur</t>
+          <t>ö00NW7G</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -566,7 +566,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Leah</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -576,11 +576,11 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>83481</v>
+        <v>16684</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1kMQmNit</t>
+          <t>ÖKvueCl</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -590,21 +590,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Inge</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>70374</v>
+        <v>54444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AkIYnohyVb</t>
+          <t>FavPrpf4O</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -614,21 +614,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sonja</t>
+          <t>Elly</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>50372</v>
+        <v>41915</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>YxäeGhD</t>
+          <t>üggÜzU2</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -638,21 +638,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hans</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>68576</v>
+        <v>58917</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NhbZ1k9</t>
+          <t>IÄüaK</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -662,21 +662,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>23606</v>
+        <v>24181</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>vcxeEüöÄ8r</t>
+          <t>y06AZp</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -686,21 +686,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Martha</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>31982</v>
+        <v>85065</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7tPü7</t>
+          <t>4DiKzBoK</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -710,21 +710,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Astrid</t>
+          <t>Jule</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>34493</v>
+        <v>50027</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>rrWi4rügrk</t>
+          <t>2koniLö0y</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -734,21 +734,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Otto</t>
+          <t>Benedikt</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>91462</v>
+        <v>23509</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>uoZXvm1</t>
+          <t>XXWNcp8aO</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -758,21 +758,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Otto</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>29220</v>
+        <v>72963</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4OJ3Fm</t>
+          <t>PIYZoaoCw</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -782,21 +782,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Rudolph</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>45446</v>
+        <v>59886</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PtjFhüK</t>
+          <t>äil9I</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -806,21 +806,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>67824</v>
+        <v>91142</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>toz7bäm</t>
+          <t>CgqizPiÄ7</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -830,21 +830,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lilly</t>
+          <t>Niklas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>95262</v>
+        <v>28779</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>o3iZFö</t>
+          <t>ieAbcszk1</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,21 +854,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Christa</t>
+          <t>Janina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>94272</v>
+        <v>23411</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9SkkGoIpGs</t>
+          <t>ww1IÖxr</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -878,7 +878,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Till</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -888,11 +888,11 @@
         <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>27884</v>
+        <v>41323</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CkQWKfbXpa</t>
+          <t>LLzoög</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -902,21 +902,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marlene</t>
+          <t>Luise</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>54657</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ÄPeäMäü1</t>
+          <t>YunüBTZR</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -926,21 +926,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eileen</t>
+          <t>Christel</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>16915</v>
+        <v>68475</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HVj3RI078a</t>
+          <t>USJifgI5ex</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -950,21 +950,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>Jakob</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>70331</v>
+        <v>78973</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>biWBdyScj</t>
+          <t>jRnrzÜ0ua</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -974,21 +974,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>86601</v>
+        <v>50380</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>dYAtä</t>
+          <t>lG6kQDeL</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -998,21 +998,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Torben</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>32877</v>
+        <v>70352</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>u0Llltn</t>
+          <t>zäbCMÜa0if</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1022,21 +1022,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Frieda</t>
+          <t>Tanja</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
         <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>78407</v>
+        <v>70402</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>aMnqkxuV</t>
+          <t>m1acPy</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1046,21 +1046,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Niclas</t>
+          <t>Milena</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>91240</v>
+        <v>80281</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KXoqfÄXiP</t>
+          <t>e0uä6TW</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1070,21 +1070,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>87379</v>
+        <v>49739</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KowpXy</t>
+          <t>JVÜMUVAJF</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1094,21 +1094,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Philip</t>
+          <t>Ulrich</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
         <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>60403</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sCulÄ</t>
+          <t>qwU7R6YÜhö</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1118,21 +1118,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Silvia</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>55859</v>
+        <v>48186</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>l8Eqd1</t>
+          <t>täicMqÜ</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1142,7 +1142,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Claus</t>
+          <t>Katrin</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1152,11 +1152,11 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>78407</v>
+        <v>30134</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>zjfG3owss8</t>
+          <t>OWLbuh5B</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1166,21 +1166,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Emilie</t>
+          <t>Manfred</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>23499</v>
+        <v>43981</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OboHMuSCv</t>
+          <t>eE8KGrIBt8</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1190,21 +1190,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Otto</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>19975</v>
+        <v>85356</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UqQqwH</t>
+          <t>äpSi8Ma</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1214,21 +1214,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Axel</t>
+          <t>Christel</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
         <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>78936</v>
+        <v>84818</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>kÄÜK0tU</t>
+          <t>s5ÜWäKPq6</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1238,21 +1238,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>Swen</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>11046</v>
+        <v>67958</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>f7vXkuJ6a</t>
+          <t>XZoaexufÄy</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1262,21 +1262,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maja</t>
+          <t>Jakob</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>60403</v>
+        <v>96205</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>uFgWbq20</t>
+          <t>wuDnuQ</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1286,21 +1286,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Elly</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>92979</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>äÄ9MÜR</t>
+          <t>PWe5öoWZS1</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1310,21 +1310,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" t="n">
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>78407</v>
+        <v>70352</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ümnCFUcq</t>
+          <t>KuQun</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1334,24 +1334,72 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Maja</t>
+          <t>Yannik</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>82749</v>
+        <v>39648</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8BoUCÄeÜB</t>
+          <t>r1d5eoWh</t>
         </is>
       </c>
       <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Katja</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
+        <v>57128</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ilyIow</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Stella</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="n">
+        <v>50380</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>BmÜk8</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,7 +1414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,21 +1457,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maja</t>
+          <t>Artur</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>47912</v>
+        <v>21864</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4tgÜVBF</t>
+          <t>u4iUQ</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1433,7 +1481,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Uwe</t>
+          <t>Henri</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1443,11 +1491,11 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>19975</v>
+        <v>75201</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TtBrV4</t>
+          <t>v7auotE1Ä3</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1457,21 +1505,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Silvia</t>
+          <t>Yvonne</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>47613</v>
+        <v>92979</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>hdHJWuwWe</t>
+          <t>OKX3DKa</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1481,21 +1529,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Erik</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>46400</v>
+        <v>29748</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KFjrauDi</t>
+          <t>7beEDÄÜ</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1505,7 +1553,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Björn</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1515,11 +1563,11 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>65120</v>
+        <v>91119</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>YGuuyBWuO</t>
+          <t>FoCByqAfBG</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1529,21 +1577,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Toni</t>
+          <t>Jürgen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>79528</v>
+        <v>39830</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KYUos</t>
+          <t>V9xhyIoJE</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1553,21 +1601,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ina</t>
+          <t>Sabine</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>74269</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>n1voGa</t>
+          <t>UÄM314acMW</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1577,21 +1625,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Simone</t>
+          <t>Lina</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>36749</v>
+        <v>87422</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UEÜWCJ5NUk</t>
+          <t>RujIE</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1601,21 +1649,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jutta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>55365</v>
+        <v>32517</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>orFytl9jeE</t>
+          <t>jQ25UTY</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1625,21 +1673,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Martina</t>
+          <t>Dennis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>30565</v>
+        <v>63397</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>äisqAn3Ü</t>
+          <t>UsCZtzRÜQ</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1649,7 +1697,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tanja</t>
+          <t>Wolfgang</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1659,11 +1707,11 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>60237</v>
+        <v>50403</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>M2bry</t>
+          <t>mre8l0ÖIou</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1673,21 +1721,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Marion</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>23499</v>
+        <v>85647</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>viCHqheGVY</t>
+          <t>uLb47</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1697,21 +1745,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>32768</v>
+        <v>72340</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>eöY6Of</t>
+          <t>HOÄm0</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1721,21 +1769,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gerda</t>
+          <t>Emil</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>82749</v>
+        <v>20786</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ttgP2</t>
+          <t>Z42BAH</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1745,21 +1793,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hildegard</t>
+          <t>Daniela</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>35261</v>
+        <v>61016</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>haq03B7</t>
+          <t>VHHUägQZN</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1769,21 +1817,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Silke</t>
+          <t>Sven</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>55859</v>
+        <v>67828</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>oT25e</t>
+          <t>jVTCpäWbÄ</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1793,21 +1841,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kathrin</t>
+          <t>Rene</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>57128</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>euPvat2z</t>
+          <t>3mW7n</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1817,21 +1865,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>Matthias</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>26420</v>
+        <v>27352</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LXJO7ia8Pa</t>
+          <t>MaAVu</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1841,21 +1889,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Chiara</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>60403</v>
+        <v>25885</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C1iqt2YY</t>
+          <t>1POÄN</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1865,21 +1913,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Noah</t>
+          <t>Stella</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>88718</v>
+        <v>12613</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4qGäiCq</t>
+          <t>ÖtaEDi</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1889,21 +1937,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Werner</t>
+          <t>Elias</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>26504</v>
+        <v>84818</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>tNieiT</t>
+          <t>yaRgum</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1913,21 +1961,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Claus</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="n">
         <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>15228</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>hRÄoo</t>
+          <t>iIlC6Ho6</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1937,21 +1985,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Andreas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>78407</v>
+        <v>92979</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>qKfkOd4</t>
+          <t>0MpYBUBE</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1961,21 +2009,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Niels</t>
+          <t>Swen</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>69549</v>
+        <v>50027</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0HVET11</t>
+          <t>twqQo</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1985,21 +2033,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Silke</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>68576</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DuKÄQJi</t>
+          <t>k3pWt9</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2009,21 +2057,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ida</t>
+          <t>Gerd</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>29220</v>
+        <v>12613</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4füylsK8</t>
+          <t>KÜTr7</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2033,21 +2081,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Ulrich</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>60236</v>
+        <v>73777</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>66x8NF</t>
+          <t>aeNOoz</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2057,21 +2105,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Leon</t>
+          <t>Janina</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>73777</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ÄaoeSnU</t>
+          <t>85eäj</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2081,21 +2129,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Till</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>93862</v>
+        <v>54444</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ay9XGm</t>
+          <t>jkqVf</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2105,24 +2153,120 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>Josephine</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" t="n">
+        <v>54444</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0Mumu</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rudolf</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>34</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="n">
+        <v>43981</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>oäa4Wkw</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Artur</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>33</v>
       </c>
-      <c r="C31" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" t="n">
-        <v>31982</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>9iBG0Ug1z</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="C33" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" t="n">
+        <v>84818</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>focikw5Ü</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Katrin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>30</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23509</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>lgix1i</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Katja</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>36</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30</v>
+      </c>
+      <c r="D35" t="n">
+        <v>87422</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>kvf3Ü</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2137,7 +2281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,21 +2324,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Matthias</t>
+          <t>Bastian</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>28934</v>
+        <v>48330</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KQÖVÜPdE5a</t>
+          <t>FüqoskBjn</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2204,21 +2348,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lara</t>
+          <t>Hannes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>78936</v>
+        <v>17254</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>kcIöeÜOq</t>
+          <t>Fr2Jn</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2228,21 +2372,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Axel</t>
+          <t>Josephine</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>17970</v>
+        <v>31529</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jhöj7a</t>
+          <t>y50oüO</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2252,21 +2396,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anja</t>
+          <t>Stefan</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>78573</v>
+        <v>36062</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>eAeZLVäINK</t>
+          <t>Öuqzaa</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2276,21 +2420,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hannelore</t>
+          <t>Carla</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>53248</v>
+        <v>71320</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WEöaK</t>
+          <t>bCKBT</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2300,21 +2444,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Monika</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>88030</v>
+        <v>84089</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ZQTeCZ</t>
+          <t>uZFPvZaP</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2324,21 +2468,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marianne</t>
+          <t>Helene</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>26499</v>
+        <v>23494</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MyylaRi</t>
+          <t>3PaOWmNQK</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2348,21 +2492,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ida</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>24491</v>
+        <v>56884</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PXq47</t>
+          <t>4tSRd</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2372,21 +2516,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Josef</t>
+          <t>Phil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>89908</v>
+        <v>27981</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DoJeJffmSj</t>
+          <t>yigvp0euiQ</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2396,21 +2540,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carla</t>
+          <t>Yannik</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>60236</v>
+        <v>17002</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>QXjEhDu</t>
+          <t>imlWd5Ö</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2420,21 +2564,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Arne</t>
+          <t>Katja</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>12489</v>
+        <v>80310</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>YujMdKKP</t>
+          <t>EsSlkü5ox</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2444,21 +2588,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Johannes</t>
+          <t>Karsten</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>80595</v>
+        <v>35310</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MÜüOYbTgi</t>
+          <t>JJbuüoR</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2468,21 +2612,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Niels</t>
+          <t>Swen</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>75017</v>
+        <v>96205</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>pejNäi07R</t>
+          <t>07esÖgnRS</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2492,21 +2636,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>80261</v>
+        <v>53302</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>dwänürMO</t>
+          <t>zdn9lg</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2516,21 +2660,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Josefine</t>
+          <t>Werner</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>84275</v>
+        <v>39648</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>enpehv9e</t>
+          <t>jeöeKfkP</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2540,21 +2684,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Rudolf</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>95635</v>
+        <v>67958</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cirMTf2LoG</t>
+          <t>gnOKjJ72p</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2564,21 +2708,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Dirk</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>91882</v>
+        <v>94777</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PzVwVJa</t>
+          <t>QövEhU</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2588,21 +2732,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Rudolph</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>69549</v>
+        <v>53302</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>tAxKQABYMt</t>
+          <t>üH7DiEqbYA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2612,21 +2756,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Christel</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>94655</v>
+        <v>27352</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WSk9Ä</t>
+          <t>t9sIq9lÄfW</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2636,21 +2780,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>44082</v>
+        <v>49739</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>oRvFt</t>
+          <t>zavS2roFWS</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2660,7 +2804,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sabrina</t>
+          <t>Torben</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2670,11 +2814,11 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>11046</v>
+        <v>21864</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EähjnE</t>
+          <t>Bjo6oPZQ2</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2684,21 +2828,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Otto</t>
+          <t>Manfred</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>56074</v>
+        <v>48330</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>dTVä3u</t>
+          <t>ztoÜIüO6</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2708,21 +2852,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>56074</v>
+        <v>68475</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SAd5Q</t>
+          <t>TMGjrÄä</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2732,21 +2876,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lukas</t>
+          <t>Janina</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>11046</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sHIRv</t>
+          <t>9xK4äv3</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2756,21 +2900,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ida</t>
+          <t>Emil</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>31982</v>
+        <v>57128</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>hJzFBa</t>
+          <t>jpT7BDd78</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2780,21 +2924,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ina</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>78573</v>
+        <v>32517</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>IQKÖ8DI</t>
+          <t>sdjIp</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2804,168 +2948,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Anton</t>
+          <t>Tanja</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>59372</v>
+        <v>27352</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CaYPm</t>
+          <t>TyÄÄHze</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Hans</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>35</v>
-      </c>
-      <c r="C29" t="n">
-        <v>30</v>
-      </c>
-      <c r="D29" t="n">
-        <v>70374</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Q6bnD638ba</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Otto</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>34</v>
-      </c>
-      <c r="C30" t="n">
-        <v>30</v>
-      </c>
-      <c r="D30" t="n">
-        <v>45446</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>sC7Geanmw0</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Ida</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>33</v>
-      </c>
-      <c r="C31" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" t="n">
-        <v>80595</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>MÜüFVJYipu</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>29</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20</v>
-      </c>
-      <c r="D32" t="n">
-        <v>11046</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>KjPRTDcd</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Andreas</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>34</v>
-      </c>
-      <c r="C33" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" t="n">
-        <v>70374</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>8Ül62</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Ida</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>28</v>
-      </c>
-      <c r="C34" t="n">
-        <v>20</v>
-      </c>
-      <c r="D34" t="n">
-        <v>93862</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>cörntifU</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
         <v>1</v>
       </c>
     </row>

--- a/jupyter/data/df0.xlsx
+++ b/jupyter/data/df0.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bremen" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Berlin" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Berlin" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Bremen" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Wien" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,21 +470,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anette</t>
+          <t>Ulrich</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>70285</v>
+        <v>48996</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>kzötä</t>
+          <t>syXTYBFf</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -494,21 +494,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gerd</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>87626</v>
+        <v>80760</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CF4PuE0</t>
+          <t>Ü9bx5zlPot</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -518,21 +518,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anja</t>
+          <t>Christel</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>73777</v>
+        <v>81086</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>eX7mW6ZB</t>
+          <t>hTpV7p7i</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -542,21 +542,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>Daniela</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>88064</v>
+        <v>16970</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ö00NW7G</t>
+          <t>Uöv3y6N</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -566,21 +566,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Andrea</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>16684</v>
+        <v>38050</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÖKvueCl</t>
+          <t>g6fW7l</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -590,21 +590,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Inge</t>
+          <t>Lennard</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>54444</v>
+        <v>44525</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FavPrpf4O</t>
+          <t>qrA6Me5t6</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -614,21 +614,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Elly</t>
+          <t>Margarethe</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>41915</v>
+        <v>52140</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>üggÜzU2</t>
+          <t>uVx4H4Xs</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -638,21 +638,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Sofie</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>58917</v>
+        <v>88606</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IÄüaK</t>
+          <t>Nfäll0</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -662,21 +662,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nicolas</t>
+          <t>Jule</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>24181</v>
+        <v>98373</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>y06AZp</t>
+          <t>OeiSKm6qNM</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -686,21 +686,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>85065</v>
+        <v>26474</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4DiKzBoK</t>
+          <t>pünö7uäs</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -710,21 +710,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jule</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>50027</v>
+        <v>37624</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2koniLö0y</t>
+          <t>lgaaU7CÄw</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -734,21 +734,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Benedikt</t>
+          <t>Sven</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>23509</v>
+        <v>54280</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>XXWNcp8aO</t>
+          <t>55i5Hzn</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -758,21 +758,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Otto</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>72963</v>
+        <v>56952</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PIYZoaoCw</t>
+          <t>ORÜeHlda</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -782,21 +782,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rudolph</t>
+          <t>Nora</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>59886</v>
+        <v>21416</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>äil9I</t>
+          <t>K5XgWhxu9</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -806,7 +806,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -816,11 +816,11 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>91142</v>
+        <v>86074</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CgqizPiÄ7</t>
+          <t>lD3ü2</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -830,21 +830,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Niklas</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>28779</v>
+        <v>70575</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ieAbcszk1</t>
+          <t>h3eNi28FRu</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,21 +854,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Janina</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>23411</v>
+        <v>65030</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ww1IÖxr</t>
+          <t>MöynWmE</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -878,21 +878,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Till</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
         <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>41323</v>
+        <v>28456</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LLzoög</t>
+          <t>B30dFP7c</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -902,21 +902,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Luise</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>54657</v>
+        <v>56930</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>YunüBTZR</t>
+          <t>AHeOavzB</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -926,21 +926,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Christel</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>68475</v>
+        <v>49786</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>USJifgI5ex</t>
+          <t>fOvoäüZvC</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -950,21 +950,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jakob</t>
+          <t>Yannick</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>78973</v>
+        <v>14607</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>jRnrzÜ0ua</t>
+          <t>Egf6tD</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -974,21 +974,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Hanna</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>50380</v>
+        <v>63900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>lG6kQDeL</t>
+          <t>eGeMt</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -998,21 +998,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Torben</t>
+          <t>Hanna</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" t="n">
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>70352</v>
+        <v>16970</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>zäbCMÜa0if</t>
+          <t>6SEFDEäe</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1022,21 +1022,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tanja</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>70402</v>
+        <v>56930</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>m1acPy</t>
+          <t>TQxSeö9eü</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1046,21 +1046,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Milena</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>80281</v>
+        <v>92621</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>e0uä6TW</t>
+          <t>78Qe2</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1070,21 +1070,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>49739</v>
+        <v>12482</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>JVÜMUVAJF</t>
+          <t>CrN2BSxvf</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1094,21 +1094,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ulrich</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>qwU7R6YÜhö</t>
+          <t>IkiJqSSoir</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1118,21 +1118,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Josefine</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>48186</v>
+        <v>19220</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>täicMqÜ</t>
+          <t>tMhU9Ö4h7ä</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1142,21 +1142,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Katrin</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>30134</v>
+        <v>43935</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OWLbuh5B</t>
+          <t>v9fAbau</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1166,21 +1166,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Manfred</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>43981</v>
+        <v>43644</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>eE8KGrIBt8</t>
+          <t>ÜpÖqRX4i</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1190,216 +1190,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Wilhelm</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>85356</v>
+        <v>56930</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>äpSi8Ma</t>
+          <t>plG2Gs</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Christel</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>28</v>
-      </c>
-      <c r="C33" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" t="n">
-        <v>84818</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>s5ÜWäKPq6</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Swen</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>38</v>
-      </c>
-      <c r="C34" t="n">
-        <v>30</v>
-      </c>
-      <c r="D34" t="n">
-        <v>67958</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>XZoaexufÄy</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Jakob</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>31</v>
-      </c>
-      <c r="C35" t="n">
-        <v>30</v>
-      </c>
-      <c r="D35" t="n">
-        <v>96205</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>wuDnuQ</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Elly</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>30</v>
-      </c>
-      <c r="D36" t="n">
-        <v>92979</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>PWe5öoWZS1</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Jutta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>33</v>
-      </c>
-      <c r="C37" t="n">
-        <v>30</v>
-      </c>
-      <c r="D37" t="n">
-        <v>70352</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>KuQun</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Yannik</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>31</v>
-      </c>
-      <c r="C38" t="n">
-        <v>30</v>
-      </c>
-      <c r="D38" t="n">
-        <v>39648</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>r1d5eoWh</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Katja</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>30</v>
-      </c>
-      <c r="C39" t="n">
-        <v>30</v>
-      </c>
-      <c r="D39" t="n">
-        <v>57128</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ilyIow</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Stella</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>40</v>
-      </c>
-      <c r="C40" t="n">
-        <v>40</v>
-      </c>
-      <c r="D40" t="n">
-        <v>50380</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>BmÜk8</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1414,7 +1222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1457,21 +1265,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Artur</t>
+          <t>Tanja</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>21864</v>
+        <v>65871</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>u4iUQ</t>
+          <t>KvqabZIÖ</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1481,21 +1289,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Henri</t>
+          <t>Siegfried</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>75201</v>
+        <v>12912</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>v7auotE1Ä3</t>
+          <t>Öe5WvIJuOE</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1505,21 +1313,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yvonne</t>
+          <t>Zoe</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>92979</v>
+        <v>77579</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OKX3DKa</t>
+          <t>W6Re5iOlq</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1529,21 +1337,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Yvonne</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>29748</v>
+        <v>14352</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7beEDÄÜ</t>
+          <t>ivioZa</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1553,21 +1361,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Björn</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>91119</v>
+        <v>92621</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FoCByqAfBG</t>
+          <t>AmkEez</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1577,21 +1385,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jürgen</t>
+          <t>Anneliese</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>39830</v>
+        <v>31250</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>V9xhyIoJE</t>
+          <t>öCU1ÖpuWs</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1601,21 +1409,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sabine</t>
+          <t>Heike</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>74269</v>
+        <v>55139</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UÄM314acMW</t>
+          <t>Ond5qaN</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1625,21 +1433,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lina</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>87422</v>
+        <v>79657</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RujIE</t>
+          <t>eäyr0</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1649,21 +1457,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jutta</t>
+          <t>Gerhard</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>32517</v>
+        <v>73949</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>jQ25UTY</t>
+          <t>w0HiRKPS</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1673,7 +1481,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dennis</t>
+          <t>Toni</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1683,11 +1491,11 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>63397</v>
+        <v>50256</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UsCZtzRÜQ</t>
+          <t>KäQhO</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1697,21 +1505,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wolfgang</t>
+          <t>Torben</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>50403</v>
+        <v>22816</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>mre8l0ÖIou</t>
+          <t>DByYIiVxE</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1721,21 +1529,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nico</t>
+          <t>Jürgen</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>85647</v>
+        <v>93364</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>uLb47</t>
+          <t>3uA0aoÜe</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1745,21 +1553,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Meike</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>72340</v>
+        <v>98505</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HOÄm0</t>
+          <t>lMPZl</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1769,21 +1577,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Emil</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>20786</v>
+        <v>49610</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Z42BAH</t>
+          <t>vLfOs2K</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1793,21 +1601,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Daniela</t>
+          <t>Marta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>61016</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VHHUägQZN</t>
+          <t>YAÜ06</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1817,21 +1625,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sven</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>67828</v>
+        <v>38059</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>jVTCpäWbÄ</t>
+          <t>6ECtciÖoGT</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1841,21 +1649,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>Dirk</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>57128</v>
+        <v>70401</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3mW7n</t>
+          <t>5oi6eMY</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1865,21 +1673,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Matthias</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>27352</v>
+        <v>86927</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MaAVu</t>
+          <t>üTiYHXiHV</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1889,21 +1697,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiara</t>
+          <t>Merle</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>25885</v>
+        <v>72764</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1POÄN</t>
+          <t>rjr0n35</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1913,21 +1721,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Stella</t>
+          <t>Louise</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>12613</v>
+        <v>21708</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ÖtaEDi</t>
+          <t>Xj66S</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1937,21 +1745,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Elias</t>
+          <t>Norbert</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>84818</v>
+        <v>71937</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>yaRgum</t>
+          <t>QTuCxS</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1961,21 +1769,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Niels</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>94106</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>iIlC6Ho6</t>
+          <t>brVÜCe</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1985,21 +1793,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Andreas</t>
+          <t>Svenja</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>92979</v>
+        <v>15963</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0MpYBUBE</t>
+          <t>8LBämCsJGS</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2009,21 +1817,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Swen</t>
+          <t>Bernhard</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>50027</v>
+        <v>13898</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>twqQo</t>
+          <t>yTOK2yJ</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2033,21 +1841,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Ulrich</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>30706</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>k3pWt9</t>
+          <t>1Ät1n9cPgS</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2057,21 +1865,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gerd</t>
+          <t>Zoe</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>12613</v>
+        <v>15963</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KÜTr7</t>
+          <t>9lLoz5</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2081,21 +1889,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ulrich</t>
+          <t>Ingrid</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>73777</v>
+        <v>19832</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>aeNOoz</t>
+          <t>cZdxYzjR7f</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2105,21 +1913,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Janina</t>
+          <t>Ruth</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>73777</v>
+        <v>93364</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>85eäj</t>
+          <t>bTLWuv</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2129,21 +1937,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Till</t>
+          <t>Anne</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>54444</v>
+        <v>19832</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>jkqVf</t>
+          <t>wyFoT</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2153,7 +1961,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Josephine</t>
+          <t>Annica</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2163,11 +1971,11 @@
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>54444</v>
+        <v>47757</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0Mumu</t>
+          <t>wyNcLXD1VP</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2177,21 +1985,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Rudolf</t>
+          <t>Torben</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="n">
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>43981</v>
+        <v>65871</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>oäa4Wkw</t>
+          <t>SöaGäYXAeÖ</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2201,21 +2009,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Artur</t>
+          <t>Jannik</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>84818</v>
+        <v>12912</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>focikw5Ü</t>
+          <t>PjGgdoDqcd</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2225,21 +2033,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Katrin</t>
+          <t>Ulrich</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>23509</v>
+        <v>14352</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>lgix1i</t>
+          <t>JImpdwaFx</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2249,24 +2057,144 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Katja</t>
+          <t>Svenja</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>87422</v>
+        <v>24135</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>kvf3Ü</t>
+          <t>ÖY8ÄgMcF</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30</v>
+      </c>
+      <c r="D36" t="n">
+        <v>80760</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>GEüisih</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kay</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>40</v>
+      </c>
+      <c r="C37" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21416</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ScLo1</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>38</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" t="n">
+        <v>49610</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>fB4äka8rP</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Christel</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>32</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
+        <v>97047</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>iyeosG8</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>37</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
+        <v>43644</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>p28Vvp</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,7 +2209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,21 +2252,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bastian</t>
+          <t>Karsten</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>48330</v>
+        <v>19220</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FüqoskBjn</t>
+          <t>DAT53qGe</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2348,7 +2276,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hannes</t>
+          <t>Niklas</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2358,11 +2286,11 @@
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>17254</v>
+        <v>47757</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fr2Jn</t>
+          <t>cishfsi5h</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2372,21 +2300,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Josephine</t>
+          <t>Ingo</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>31529</v>
+        <v>30706</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>y50oüO</t>
+          <t>moWRowk</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2396,21 +2324,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stefan</t>
+          <t>Jannik</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>36062</v>
+        <v>19832</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Öuqzaa</t>
+          <t>VaWtJ</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2420,21 +2348,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carla</t>
+          <t>Ruth</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>71320</v>
+        <v>50642</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bCKBT</t>
+          <t>UHa6Nta5v</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2444,21 +2372,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Monika</t>
+          <t>Georg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>84089</v>
+        <v>42083</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>uZFPvZaP</t>
+          <t>6fB0AÜbu</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2468,21 +2396,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Helene</t>
+          <t>Pia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>23494</v>
+        <v>62265</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3PaOWmNQK</t>
+          <t>Dqkml</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2492,21 +2420,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>56884</v>
+        <v>15007</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4tSRd</t>
+          <t>ArJZKgLoe</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2516,21 +2444,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phil</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>27981</v>
+        <v>51312</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>yigvp0euiQ</t>
+          <t>Ig2l3e</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2540,21 +2468,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Yannik</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>17002</v>
+        <v>43644</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>imlWd5Ö</t>
+          <t>uiiAjcAXyo</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2564,21 +2492,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Katja</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>80310</v>
+        <v>80345</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EsSlkü5ox</t>
+          <t>wzUcsOö689</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2588,21 +2516,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Karsten</t>
+          <t>Niclas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>35310</v>
+        <v>37315</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>JJbuüoR</t>
+          <t>lzhq2gx6</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2612,21 +2540,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Swen</t>
+          <t>Wilhelm</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>96205</v>
+        <v>99968</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07esÖgnRS</t>
+          <t>äCj8öVeG</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2636,21 +2564,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Kay</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>53302</v>
+        <v>48127</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>zdn9lg</t>
+          <t>ÄÖyqiTgrko</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2660,21 +2588,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Werner</t>
+          <t>Artur</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>39648</v>
+        <v>15732</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>jeöeKfkP</t>
+          <t>ÖÄlwG</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2684,21 +2612,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rudolf</t>
+          <t>Josefine</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>67958</v>
+        <v>12482</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gnOKjJ72p</t>
+          <t>miläUm</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2708,21 +2636,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dirk</t>
+          <t>Ernst</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>94777</v>
+        <v>43935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>QövEhU</t>
+          <t>uePOYey9</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2732,21 +2660,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rudolph</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>53302</v>
+        <v>97047</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>üH7DiEqbYA</t>
+          <t>4GcVucFE</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2756,21 +2684,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Christel</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>27352</v>
+        <v>41970</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>t9sIq9lÄfW</t>
+          <t>iWtDPvukqR</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2780,21 +2708,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>49739</v>
+        <v>55992</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>zavS2roFWS</t>
+          <t>Q17eÖYh2a</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2804,21 +2732,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Torben</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>21864</v>
+        <v>24135</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bjo6oPZQ2</t>
+          <t>msui5</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2828,21 +2756,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Manfred</t>
+          <t>Anja</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>48330</v>
+        <v>34418</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ztoÜIüO6</t>
+          <t>YdÜisb</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2852,21 +2780,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Annica</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C24" t="n">
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>68475</v>
+        <v>59250</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TMGjrÄä</t>
+          <t>uÄmsuml</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2876,11 +2804,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Janina</t>
+          <t>Evelyn</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" t="n">
         <v>30</v>
@@ -2890,7 +2818,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9xK4äv3</t>
+          <t>EjT6öS</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2900,21 +2828,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Emil</t>
+          <t>Bernhard</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>57128</v>
+        <v>79657</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>jpT7BDd78</t>
+          <t>GÜWüko</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2924,21 +2852,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Merle</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>32517</v>
+        <v>15732</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sdjIp</t>
+          <t>LnaL9qwM3</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2948,24 +2876,96 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tanja</t>
+          <t>Annica</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" t="n">
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>27352</v>
+        <v>55992</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TyÄÄHze</t>
+          <t>VG48Mc</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bernhard</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>38</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>37315</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>iHAfc</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="n">
+        <v>99968</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>LHBvN</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ruth</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>34</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>49610</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>u2Cüps</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>1</v>
       </c>
     </row>

--- a/jupyter/data/df0.xlsx
+++ b/jupyter/data/df0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Berlin" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Bremen" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Wien" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Berlin" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bremen" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wien" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,21 +470,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ulrich</t>
+          <t>Oliver</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>48996</v>
+        <v>86363</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>syXTYBFf</t>
+          <t>RyUIgl</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -494,21 +494,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>80760</v>
+        <v>56975</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ü9bx5zlPot</t>
+          <t>fecUH0j7eg</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -518,21 +518,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Christel</t>
+          <t>Carina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>81086</v>
+        <v>48297</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>hTpV7p7i</t>
+          <t>5MÖAu</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -542,21 +542,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daniela</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>16970</v>
+        <v>84404</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Uöv3y6N</t>
+          <t>ÜüBvVFu</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -566,21 +566,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Andrea</t>
+          <t>Artur</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>38050</v>
+        <v>97106</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>g6fW7l</t>
+          <t>J0Yfge</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -590,21 +590,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lennard</t>
+          <t>Theo</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>44525</v>
+        <v>11663</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>qrA6Me5t6</t>
+          <t>QFDh1i9u9u</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -614,21 +614,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Margarethe</t>
+          <t>Yannick</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>52140</v>
+        <v>14857</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>uVx4H4Xs</t>
+          <t>lztvTivmgt</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -638,21 +638,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sofie</t>
+          <t>Hans</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>88606</v>
+        <v>20603</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nfäll0</t>
+          <t>GgVCI</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -662,21 +662,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jule</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>98373</v>
+        <v>50833</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OeiSKm6qNM</t>
+          <t>CemXÄBs6F</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -686,7 +686,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Erich</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -696,11 +696,11 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>26474</v>
+        <v>19272</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>pünö7uäs</t>
+          <t>tRFaöE</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -710,21 +710,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Andre</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>37624</v>
+        <v>96730</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>lgaaU7CÄw</t>
+          <t>HquuÖOT0</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -734,21 +734,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sven</t>
+          <t>Elfriede</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>54280</v>
+        <v>20405</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>55i5Hzn</t>
+          <t>pEÜ80</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -758,21 +758,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hertha</t>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>56952</v>
+        <v>99485</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ORÜeHlda</t>
+          <t>y230pzNhBq</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -782,21 +782,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nora</t>
+          <t>Lars</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>21416</v>
+        <v>99405</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>K5XgWhxu9</t>
+          <t>uO2ybITäjf</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -806,21 +806,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Carl</t>
+          <t>Tanja</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>86074</v>
+        <v>63796</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>lD3ü2</t>
+          <t>wVFtXÄ</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -830,21 +830,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>70575</v>
+        <v>29553</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>h3eNi28FRu</t>
+          <t>8kuLvoiS</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,21 +854,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>65030</v>
+        <v>35405</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MöynWmE</t>
+          <t>JhYoJ</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -878,21 +878,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Klaus</t>
+          <t>Nadine</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>28456</v>
+        <v>18501</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>B30dFP7c</t>
+          <t>9qTeHs3</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -902,21 +902,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Isabelle</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>56930</v>
+        <v>47333</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AHeOavzB</t>
+          <t>aHÖl5ILlV</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -926,21 +926,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Phil</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>49786</v>
+        <v>84776</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fOvoäüZvC</t>
+          <t>ÖaubYi38</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -950,21 +950,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Yannick</t>
+          <t>Stephan</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>14607</v>
+        <v>58686</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Egf6tD</t>
+          <t>eÖmBq</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -974,21 +974,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hanna</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>63900</v>
+        <v>45747</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>eGeMt</t>
+          <t>cwI4dbNap</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -998,21 +998,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hanna</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>16970</v>
+        <v>83367</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6SEFDEäe</t>
+          <t>3i9jY</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1022,21 +1022,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>Gustav</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>56930</v>
+        <v>55134</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TQxSeö9eü</t>
+          <t>twFVC4ö6aE</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1046,21 +1046,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Anja</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>92621</v>
+        <v>85530</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>78Qe2</t>
+          <t>DvLKC5ÄdüV</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1070,21 +1070,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Frieda</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>12482</v>
+        <v>90431</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CrN2BSxvf</t>
+          <t>YHfäie</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1094,21 +1094,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C28" t="n">
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>73198</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>IkiJqSSoir</t>
+          <t>hXlVtUQör</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1118,21 +1118,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Josefine</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>19220</v>
+        <v>45149</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>tMhU9Ö4h7ä</t>
+          <t>WWQdBP5cÖ</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1142,21 +1142,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Klaus</t>
+          <t>Rainer</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>43935</v>
+        <v>30792</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>v9fAbau</t>
+          <t>fBlHrs</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1166,21 +1166,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Philip</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>43644</v>
+        <v>34220</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ÜpÖqRX4i</t>
+          <t>B5LJy</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1190,24 +1190,168 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Wilhelm</t>
+          <t>Stephan</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>56930</v>
+        <v>83367</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>plG2Gs</t>
+          <t>oeGäa</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jörg</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>34</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" t="n">
+        <v>84404</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>uoEj0</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>37</v>
+      </c>
+      <c r="C34" t="n">
+        <v>30</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24179</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>uüZuyoa</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jürgen</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>41</v>
+      </c>
+      <c r="C35" t="n">
+        <v>40</v>
+      </c>
+      <c r="D35" t="n">
+        <v>42581</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>on2Äii</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>42</v>
+      </c>
+      <c r="C36" t="n">
+        <v>40</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35910</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ä8lCe</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>30</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30</v>
+      </c>
+      <c r="D37" t="n">
+        <v>53479</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>wJVRFk</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jörg</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>38</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30</v>
+      </c>
+      <c r="D38" t="n">
+        <v>85250</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Dbifhcta</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1222,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,21 +1409,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tanja</t>
+          <t>Detlef</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>65871</v>
+        <v>21064</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KvqabZIÖ</t>
+          <t>VOIJjÄZZJ</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1289,21 +1433,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Siegfried</t>
+          <t>Stefan</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>12912</v>
+        <v>53479</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Öe5WvIJuOE</t>
+          <t>ös56z</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1313,21 +1457,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Marta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>77579</v>
+        <v>58487</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>W6Re5iOlq</t>
+          <t>7WXaJ93</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1337,21 +1481,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yvonne</t>
+          <t>Bastian</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>14352</v>
+        <v>74213</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ivioZa</t>
+          <t>AupSbtüHK1</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1361,21 +1505,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Jürgen</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>92621</v>
+        <v>68288</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AmkEez</t>
+          <t>u4ÜFÜsi</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1385,21 +1529,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anneliese</t>
+          <t>Claus</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>31250</v>
+        <v>64724</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>öCU1ÖpuWs</t>
+          <t>xvr7I8</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1409,21 +1553,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Heike</t>
+          <t>Jörg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>55139</v>
+        <v>45019</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ond5qaN</t>
+          <t>pIwGÄh</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1433,21 +1577,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Hildegard</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>79657</v>
+        <v>40186</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>eäyr0</t>
+          <t>RFxUIPR</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1457,21 +1601,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gerhard</t>
+          <t>Ernst</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>73949</v>
+        <v>90261</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>w0HiRKPS</t>
+          <t>JäuIcleHl</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1481,21 +1625,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Toni</t>
+          <t>Margarete</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>50256</v>
+        <v>75034</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KäQhO</t>
+          <t>CiHäeWAh</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1505,21 +1649,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Torben</t>
+          <t>Gisela</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>22816</v>
+        <v>77191</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DByYIiVxE</t>
+          <t>PejcF</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1529,21 +1673,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jürgen</t>
+          <t>Heinrich</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>93364</v>
+        <v>77783</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3uA0aoÜe</t>
+          <t>aGufFj2u2D</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1553,21 +1697,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Meike</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>98505</v>
+        <v>14750</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>lMPZl</t>
+          <t>7qäaz9ijüO</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1577,21 +1721,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>49610</v>
+        <v>83672</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>vLfOs2K</t>
+          <t>pzhKiuEI</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1601,21 +1745,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Marta</t>
+          <t>Michaela</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n">
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>35285</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>YAÜ06</t>
+          <t>Y6ünEve</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1625,21 +1769,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Ute</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>38059</v>
+        <v>42581</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6ECtciÖoGT</t>
+          <t>2PNvi5B3W</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1649,21 +1793,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dirk</t>
+          <t>Josefine</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>70401</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5oi6eMY</t>
+          <t>KuoölFJ</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1673,21 +1817,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Ursula</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>86927</v>
+        <v>41624</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>üTiYHXiHV</t>
+          <t>H1Qv8O</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1697,21 +1841,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Merle</t>
+          <t>Reinhard</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>72764</v>
+        <v>22191</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>rjr0n35</t>
+          <t>hkgKd</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1721,21 +1865,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Louise</t>
+          <t>Rosemarie</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>21708</v>
+        <v>59589</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Xj66S</t>
+          <t>8W1M3CwJÖ</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1745,21 +1889,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Norbert</t>
+          <t>Torben</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>71937</v>
+        <v>75432</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>QTuCxS</t>
+          <t>ÜITönHa62L</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1769,21 +1913,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Niels</t>
+          <t>Yannick</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>94106</v>
+        <v>55134</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>brVÜCe</t>
+          <t>p48wG1QQ</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1793,21 +1937,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Svenja</t>
+          <t>Rosemarie</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>15963</v>
+        <v>58935</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8LBämCsJGS</t>
+          <t>Www75</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1817,21 +1961,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bernhard</t>
+          <t>Anja</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>13898</v>
+        <v>96627</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>yTOK2yJ</t>
+          <t>PaozewÖ</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1841,21 +1985,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ulrich</t>
+          <t>Josefine</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>30706</v>
+        <v>55134</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1Ät1n9cPgS</t>
+          <t>gAjz8</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1865,21 +2009,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>15963</v>
+        <v>17878</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9lLoz5</t>
+          <t>TdK1tA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1889,21 +2033,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ingrid</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C28" t="n">
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>19832</v>
+        <v>83672</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cZdxYzjR7f</t>
+          <t>oäaä8Yc</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1913,21 +2057,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ruth</t>
+          <t>Luka</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C29" t="n">
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>93364</v>
+        <v>11663</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>bTLWuv</t>
+          <t>F2iXZiG</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1937,21 +2081,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Anne</t>
+          <t>Josefine</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C30" t="n">
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>19832</v>
+        <v>40186</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>wyFoT</t>
+          <t>ÄbüEHÜCR9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1961,21 +2105,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Annica</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>47757</v>
+        <v>97106</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>wyNcLXD1VP</t>
+          <t>qüvIsrRkGk</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1985,21 +2129,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Torben</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>65871</v>
+        <v>20603</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SöaGäYXAeÖ</t>
+          <t>x2IFKäbö</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2009,21 +2153,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jannik</t>
+          <t>Gustav</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>12912</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PjGgdoDqcd</t>
+          <t>0FZ5xu</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2033,168 +2177,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ulrich</t>
+          <t>Norbert</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>14352</v>
+        <v>99405</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>JImpdwaFx</t>
+          <t>wiuc4</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Svenja</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>27</v>
-      </c>
-      <c r="C35" t="n">
-        <v>20</v>
-      </c>
-      <c r="D35" t="n">
-        <v>24135</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ÖY8ÄgMcF</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Julia</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>34</v>
-      </c>
-      <c r="C36" t="n">
-        <v>30</v>
-      </c>
-      <c r="D36" t="n">
-        <v>80760</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>GEüisih</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Kay</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>40</v>
-      </c>
-      <c r="C37" t="n">
-        <v>40</v>
-      </c>
-      <c r="D37" t="n">
-        <v>21416</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ScLo1</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>38</v>
-      </c>
-      <c r="C38" t="n">
-        <v>30</v>
-      </c>
-      <c r="D38" t="n">
-        <v>49610</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>fB4äka8rP</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Christel</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>32</v>
-      </c>
-      <c r="C39" t="n">
-        <v>30</v>
-      </c>
-      <c r="D39" t="n">
-        <v>97047</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>iyeosG8</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>37</v>
-      </c>
-      <c r="C40" t="n">
-        <v>30</v>
-      </c>
-      <c r="D40" t="n">
-        <v>43644</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>p28Vvp</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,21 +2252,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Karsten</t>
+          <t>Yasmin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>19220</v>
+        <v>94859</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DAT53qGe</t>
+          <t>ozbÜÄJbv</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2276,21 +2276,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Niklas</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>47757</v>
+        <v>81527</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>cishfsi5h</t>
+          <t>Ma7kgöyh</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2300,21 +2300,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ingo</t>
+          <t>Elli</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>30706</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>moWRowk</t>
+          <t>gbBRdau5U</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2324,21 +2324,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jannik</t>
+          <t>Christa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>19832</v>
+        <v>96627</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VaWtJ</t>
+          <t>ÖbPÖQjo</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2348,21 +2348,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ruth</t>
+          <t>Martha</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>50642</v>
+        <v>85250</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UHa6Nta5v</t>
+          <t>ÜV0Ös0UvSE</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2372,21 +2372,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Georg</t>
+          <t>Norbert</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>42083</v>
+        <v>29008</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6fB0AÜbu</t>
+          <t>EcS75ö3e</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2396,21 +2396,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pia</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>62265</v>
+        <v>24179</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dqkml</t>
+          <t>Naüq2äh</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2420,21 +2420,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>Yannic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>15007</v>
+        <v>96738</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ArJZKgLoe</t>
+          <t>MÄüQqt0nZo</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2444,21 +2444,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>51312</v>
+        <v>84674</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ig2l3e</t>
+          <t>uX37üRyü</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2468,21 +2468,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>43644</v>
+        <v>18705</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>uiiAjcAXyo</t>
+          <t>T7aAD</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2492,21 +2492,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Emil</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>80345</v>
+        <v>35184</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>wzUcsOö689</t>
+          <t>uHfKWnXQXh</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2516,21 +2516,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Niclas</t>
+          <t>Ida</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>37315</v>
+        <v>35910</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>lzhq2gx6</t>
+          <t>0ekAUmEo</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2540,21 +2540,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wilhelm</t>
+          <t>Dirk</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>99968</v>
+        <v>92753</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>äCj8öVeG</t>
+          <t>ofW2römJ</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2564,7 +2564,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kay</t>
+          <t>Jule</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2574,11 +2574,11 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>48127</v>
+        <v>17878</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ÄÖyqiTgrko</t>
+          <t>Cb6wA3iRhö</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2588,21 +2588,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Artur</t>
+          <t>Ilse</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>15732</v>
+        <v>25848</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ÖÄlwG</t>
+          <t>A32HnRpW</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2612,21 +2612,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Josefine</t>
+          <t>Swen</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>12482</v>
+        <v>23805</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>miläUm</t>
+          <t>iiQiH7q4</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2636,21 +2636,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ernst</t>
+          <t>Matthias</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>43935</v>
+        <v>59119</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>uePOYey9</t>
+          <t>BQDoü</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2660,21 +2660,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Petra</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>97047</v>
+        <v>10160</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4GcVucFE</t>
+          <t>S3Fwf</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2684,7 +2684,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2694,11 +2694,11 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>41970</v>
+        <v>58935</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>iWtDPvukqR</t>
+          <t>QEm4B61</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2708,21 +2708,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>55992</v>
+        <v>20405</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Q17eÖYh2a</t>
+          <t>XdüfOaZevi</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2732,21 +2732,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Rainer</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>24135</v>
+        <v>14750</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>msui5</t>
+          <t>88uii</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2756,21 +2756,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anja</t>
+          <t>Frank</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>34418</v>
+        <v>84776</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>YdÜisb</t>
+          <t>tNCBfC</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2780,21 +2780,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Annica</t>
+          <t>Jürgen</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" t="n">
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>59250</v>
+        <v>19272</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>uÄmsuml</t>
+          <t>ZieqÖ1s43</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2804,21 +2804,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>Yannic</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>86363</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EjT6öS</t>
+          <t>3imxl</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2828,21 +2828,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bernhard</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>79657</v>
+        <v>85250</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GÜWüko</t>
+          <t>HGöWixaTA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2852,21 +2852,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Merle</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
         <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>15732</v>
+        <v>99405</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LnaL9qwM3</t>
+          <t>eüR33ÖizKÄ</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2876,21 +2876,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Annica</t>
+          <t>Ursula</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>55992</v>
+        <v>17878</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VG48Mc</t>
+          <t>Qa1VXLd51e</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2900,21 +2900,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bernhard</t>
+          <t>Frieda</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="n">
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>37315</v>
+        <v>23805</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>iHAfc</t>
+          <t>pdhXöEltd</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2924,21 +2924,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Larissa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>99968</v>
+        <v>90431</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LHBvN</t>
+          <t>GPMH0UmdXG</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2948,21 +2948,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ruth</t>
+          <t>Yasmin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>49610</v>
+        <v>94859</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>u2Cüps</t>
+          <t>1ktab7</t>
         </is>
       </c>
       <c r="F31" t="n">

--- a/jupyter/data/df0.xlsx
+++ b/jupyter/data/df0.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,21 +470,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maja</t>
+          <t>Susanne</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>25143</v>
+        <v>27701</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>teQDdÜl5</t>
+          <t>jDÖRöm</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -494,21 +494,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Edith</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>42913</v>
+        <v>15624</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>üB0JLnyfld</t>
+          <t>uCuNiXyrXH</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -518,21 +518,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>10956</v>
+        <v>12687</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>änuR1</t>
+          <t>udyFEOnLwd</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -542,21 +542,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Carolin</t>
+          <t>Nikolas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>14876</v>
+        <v>95722</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>57näy9PA</t>
+          <t>ZäiixM</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -566,21 +566,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Mathias</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>13248</v>
+        <v>10916</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MkQiöBg8WK</t>
+          <t>aSwceOWySD</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -590,21 +590,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Jakob</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>29700</v>
+        <v>33759</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6Kr0d2oj</t>
+          <t>8EauRvU8I</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -614,21 +614,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>Till</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>84835</v>
+        <v>95121</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>üUL2ER</t>
+          <t>Ä4iMUD</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -638,21 +638,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Amelie</t>
+          <t>Swen</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>56644</v>
+        <v>99782</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>qpjNHws</t>
+          <t>rIXäx</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -662,21 +662,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carina</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>91402</v>
+        <v>89005</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IPRicl0su</t>
+          <t>i59c6z7</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -686,21 +686,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Arne</t>
+          <t>Ayleen</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>49287</v>
+        <v>59290</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cq2Ah72</t>
+          <t>bZRÄühni</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -710,21 +710,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lennard</t>
+          <t>Merle</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>82867</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LWfrÄ3</t>
+          <t>pJpLUü2duA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -734,21 +734,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hannes</t>
+          <t>Gertrud</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>46592</v>
+        <v>15563</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Db0üÜI</t>
+          <t>Yn8zpUIzE</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -758,21 +758,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nadine</t>
+          <t>Johann</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>32989</v>
+        <v>85033</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>yaj1q</t>
+          <t>2Ra02vyoIS</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -782,21 +782,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ulrike</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>55404</v>
+        <v>96557</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9QD3m1dt</t>
+          <t>MLn9u0LV</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -806,21 +806,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brigitte</t>
+          <t>Christiane</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>11442</v>
+        <v>36071</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Idi6Ä</t>
+          <t>VuITuZbY</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -830,21 +830,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fynn</t>
+          <t>Rosemarie</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>22211</v>
+        <v>68057</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RiO5M4</t>
+          <t>0BPZQk</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -854,21 +854,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Marius</t>
+          <t>Yannik</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
         <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>38655</v>
+        <v>43600</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24xFWb0Ü</t>
+          <t>Je6s7O</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -878,21 +878,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Heike</t>
+          <t>Thorsten</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>85467</v>
+        <v>19988</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fpÜwR</t>
+          <t>xpePöb</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -902,21 +902,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Niclas</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>68610</v>
+        <v>68999</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>qÖwtr8ly</t>
+          <t>O5ÄLJj</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -926,21 +926,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Stephan</t>
+          <t>Ole</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>40103</v>
+        <v>43700</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NPYocuLbf</t>
+          <t>b9ICqlG2</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -950,21 +950,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dagmar</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>20919</v>
+        <v>37592</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RetKH</t>
+          <t>YT9hIVfj</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -974,21 +974,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>99802</v>
+        <v>12727</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2jTIAAq</t>
+          <t>SKbväaöZD</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -998,21 +998,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Carla</t>
+          <t>Sylvia</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>84491</v>
+        <v>86657</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>uxaSOC</t>
+          <t>NvbVufd</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1022,21 +1022,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stephan</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>25143</v>
+        <v>56789</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>staB8cKag9</t>
+          <t>Uojte</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1046,21 +1046,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dagmar</t>
+          <t>Carolin</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>30075</v>
+        <v>21048</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ÖojLm</t>
+          <t>YCöveRcvD</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1070,21 +1070,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Katja</t>
+          <t>Gisela</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C27" t="n">
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>29700</v>
+        <v>84942</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>äBEöRVahDV</t>
+          <t>joyeXPwM</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1094,21 +1094,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Cornelia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>80630</v>
+        <v>49860</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DbTsifs</t>
+          <t>S9rMmgKH7</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1118,21 +1118,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Willy</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>41162</v>
+        <v>97729</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>qGma6eUyP</t>
+          <t>nrj3w</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1142,21 +1142,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fynn</t>
+          <t>Nathalie</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>13504</v>
+        <v>64481</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4öXnjföauT</t>
+          <t>HyZGYZKjl9</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1166,21 +1166,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fynn</t>
+          <t>Christiane</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>97069</v>
+        <v>99288</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6oy6heV</t>
+          <t>Gwd4Ü</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1190,21 +1190,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fynn</t>
+          <t>Claus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>38453</v>
+        <v>49860</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GSQöäPaimp</t>
+          <t>oVb8msT</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1214,21 +1214,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>71929</v>
+        <v>36071</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>26xZBf</t>
+          <t>84tmGz</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1238,21 +1238,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Heike</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>99802</v>
+        <v>53782</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>67eeKÖR2</t>
+          <t>RoÖÖoVGÄ</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1262,7 +1262,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Carla</t>
+          <t>Johann</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1272,62 +1272,14 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>33759</v>
+        <v>45315</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>f6zB1JLSf</t>
+          <t>caüFa</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Niclas</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>31</v>
-      </c>
-      <c r="C36" t="n">
-        <v>30</v>
-      </c>
-      <c r="D36" t="n">
-        <v>45905</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ROh0GgoO</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Brigitte</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>32</v>
-      </c>
-      <c r="C37" t="n">
-        <v>30</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Ivuvwe</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,21 +1337,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Amelie</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>77261</v>
+        <v>60544</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bGz432sÜY4</t>
+          <t>iuueq0Fvo</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1409,21 +1361,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Waltraud</t>
+          <t>Jannis</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>93731</v>
+        <v>10704</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O418DA63</t>
+          <t>5VRqG</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1433,21 +1385,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>11227</v>
+        <v>45315</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ziigaüfAra</t>
+          <t>kHf1eaÄLR</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1457,21 +1409,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Birgit</t>
+          <t>Niko</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>38437</v>
+        <v>59707</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ÜYuzWu</t>
+          <t>ü9EHnG0Äo</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1481,21 +1433,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Claus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>72636</v>
+        <v>65053</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>H0XBab</t>
+          <t>Ö2rSon4v</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1505,21 +1457,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Beate</t>
+          <t>Anja</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>86126</v>
+        <v>11575</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>op8uu</t>
+          <t>hdwS5</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1529,21 +1481,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>82232</v>
+        <v>90714</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>oDeue</t>
+          <t>ndjIoua5</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1553,21 +1505,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Adolf</t>
+          <t>Else</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>35203</v>
+        <v>38213</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wolq6</t>
+          <t>yRRÖooH</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1577,21 +1529,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Till</t>
+          <t>Vincent</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>37498</v>
+        <v>23736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RfZHfV7</t>
+          <t>BtMZh2</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1601,21 +1553,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bruno</t>
+          <t>Tom</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>63450</v>
+        <v>95150</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>dc4g8g9ON</t>
+          <t>1EzW90D0</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1625,21 +1577,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Astrid</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>31138</v>
+        <v>18029</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>z5denuH</t>
+          <t>Ü9AÜjPN</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1649,21 +1601,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Philip</t>
+          <t>Marius</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>64716</v>
+        <v>50902</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NOoeüHäwHP</t>
+          <t>OcjGui</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1673,21 +1625,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nikolas</t>
+          <t>Volker</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>38453</v>
+        <v>81822</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>l3ZudgW</t>
+          <t>FnMFitQü5</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1697,21 +1649,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jürgen</t>
+          <t>Josefine</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>55981</v>
+        <v>61808</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>öP5äz82PÖ9</t>
+          <t>YiPuaKcGfx</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1721,21 +1673,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hermann</t>
+          <t>Luca</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>32192</v>
+        <v>24578</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RäBsHIeMly</t>
+          <t>S73luY87</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1745,21 +1697,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Elli</t>
+          <t>Oliver</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>80176</v>
+        <v>40378</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DozUmc</t>
+          <t>nw3kJ5VNf</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1769,21 +1721,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Tanja</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>67923</v>
+        <v>53782</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PPNöfK7nö</t>
+          <t>SPidJ</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1793,21 +1745,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carla</t>
+          <t>Ilse</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>30200</v>
+        <v>86225</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>öskQFnrÜY</t>
+          <t>eÖJxIz6</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1817,21 +1769,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Werner</t>
+          <t>Vivien</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>80630</v>
+        <v>69603</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SK5uaSA</t>
+          <t>iQrhxDwjn</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1841,21 +1793,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Franz</t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>81488</v>
+        <v>24559</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ÄÖxJGE</t>
+          <t>w8uSwlJ4R</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1865,21 +1817,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Nico</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>17343</v>
+        <v>36999</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AeälOJjLH</t>
+          <t>AW4AGu</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1889,21 +1841,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Monika</t>
+          <t>Moritz</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>38577</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>e7Ni4</t>
+          <t>YFJ0Udo</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1913,21 +1865,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Marko</t>
+          <t>Elli</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>56665</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ALS1C7a</t>
+          <t>Moa3GBä</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1937,21 +1889,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Louise</t>
+          <t>Phillip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>44582</v>
+        <v>36755</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>vl9V0XUai</t>
+          <t>3DfiÖgÜO</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1961,21 +1913,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sofie</t>
+          <t>Ingo</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>89620</v>
+        <v>20721</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>JiuDl2</t>
+          <t>43nehu</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1985,21 +1937,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Bärbel</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
         <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>53513</v>
+        <v>38213</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2DwcapYlk</t>
+          <t>50axQll</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2009,21 +1961,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Denis</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C28" t="n">
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>36892</v>
+        <v>68999</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1ezäjp</t>
+          <t>rnbPGGrAv</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2033,21 +1985,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Katja</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>46487</v>
+        <v>80786</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ZNWTiuwIV</t>
+          <t>fiviP</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2057,21 +2009,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dominik</t>
+          <t>Gertrud</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>97069</v>
+        <v>23736</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cJKHW</t>
+          <t>56ÜXwä2</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2081,21 +2033,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nikolas</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D31" t="n">
-        <v>18575</v>
+        <v>95150</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>eyxqÖülT</t>
+          <t>7ÄMefDÄÄ</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2105,21 +2057,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lennard</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
         <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>32989</v>
+        <v>59290</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ShZqzmAZA</t>
+          <t>Öcr1ÖHaUi</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2129,21 +2081,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Heike</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>38437</v>
+        <v>24578</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>jrXZn4GCU</t>
+          <t>dK9aq</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2153,21 +2105,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rene</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>78155</v>
+        <v>24559</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3Gj0hwQE</t>
+          <t>F6CNohV</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2177,21 +2129,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Yannic</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" t="n">
         <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>86328</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>äPqABvg</t>
+          <t>OKIaLpxai</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2201,21 +2153,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Georg</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>31256</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ameL2</t>
+          <t>TÄnMöQZKr</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2225,21 +2177,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Yannik</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>46487</v>
+        <v>56789</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>O0Xusäw</t>
+          <t>Gäuz8ÖLo</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2249,24 +2201,192 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Arne</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38" t="n">
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>55404</v>
+        <v>15563</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GNarZRBkMX</t>
+          <t>L7elwQ</t>
         </is>
       </c>
       <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mathias</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
+        <v>84942</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>o2tsYHOh</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ilse</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>35</v>
+      </c>
+      <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15624</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>xdö3qu1aGC</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jakob</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>36</v>
+      </c>
+      <c r="C41" t="n">
+        <v>30</v>
+      </c>
+      <c r="D41" t="n">
+        <v>27701</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Q9OUzpeB3N</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Willy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>30</v>
+      </c>
+      <c r="C42" t="n">
+        <v>30</v>
+      </c>
+      <c r="D42" t="n">
+        <v>43700</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>JHYöaVK</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nikolas</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>38</v>
+      </c>
+      <c r="C43" t="n">
+        <v>30</v>
+      </c>
+      <c r="D43" t="n">
+        <v>89005</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>JOb9BNT</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>24</v>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="n">
+        <v>38577</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0WgikeZG</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rudolph</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>29</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10748</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>öNOYjP91Ho</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,7 +2401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,21 +2444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lilli</t>
+          <t>Kurt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>73588</v>
+        <v>94506</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>oCkaAX70v</t>
+          <t>vpGGs</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2348,21 +2468,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rainer</t>
+          <t>Rudolph</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>81548</v>
+        <v>10748</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ürqVpbf</t>
+          <t>SÜJoC7j</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2372,21 +2492,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anja</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>94972</v>
+        <v>99288</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>dgTv5f3r</t>
+          <t>üV9yu</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2396,21 +2516,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matthias</t>
+          <t>Carina</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>69967</v>
+        <v>31099</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VismI4uÄ</t>
+          <t>LcZUb</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2420,21 +2540,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Johannes</t>
+          <t>Hertha</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>84632</v>
+        <v>77374</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VQUqigFRÖs</t>
+          <t>OtwSFb2BP</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2444,21 +2564,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Bärbel</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>33759</v>
+        <v>80786</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ZsÖsücip</t>
+          <t>RAoeD1äWn</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2468,21 +2588,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Richard</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>18575</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>U0JSCd7F3</t>
+          <t>DrQJaRKÜu</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2492,21 +2612,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Günther</t>
+          <t>Georg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>82006</v>
+        <v>90731</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ÄtÖmUüÜÄC</t>
+          <t>QiaKÖis</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2516,21 +2636,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Luka</t>
+          <t>Anke</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>45905</v>
+        <v>41876</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9an5öÄ1</t>
+          <t>wunÄluRM1I</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2540,21 +2660,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jannis</t>
+          <t>Martha</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>84491</v>
+        <v>44825</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Xog14Ätc</t>
+          <t>osLnc</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2564,21 +2684,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Kathrin</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>71929</v>
+        <v>86328</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AAAfH</t>
+          <t>ärLVqYKu</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2588,21 +2708,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Simon</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>39516</v>
+        <v>45747</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>boxhVE6</t>
+          <t>BRCmme</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2612,21 +2732,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Oliver</t>
+          <t>Ulrich</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>31256</v>
+        <v>51727</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>yyLDaogQö</t>
+          <t>dosvtsÄoV</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2636,21 +2756,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Natalie</t>
+          <t>Berndt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>14920</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>äJy64e</t>
+          <t>laIUti</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2660,21 +2780,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jule</t>
+          <t>Lara</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>81292</v>
+        <v>17098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>vDB0yiDC</t>
+          <t>ZRa3aLCL</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2684,21 +2804,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Yannic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>41162</v>
+        <v>56704</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>elNhqm</t>
+          <t>eu9GQx4dz</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2708,21 +2828,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Ole</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>78155</v>
+        <v>84942</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>eGUÜäpzL2</t>
+          <t>7fOyotEEt0</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2732,21 +2852,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Christoph</t>
+          <t>Anja</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>30075</v>
+        <v>23736</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>rQLmEöSG5</t>
+          <t>w8äaUy</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2756,21 +2876,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Felix</t>
+          <t>Ingo</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>60863</v>
+        <v>99782</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>XyIOY</t>
+          <t>OoäJK29</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2780,21 +2900,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Christoph</t>
+          <t>Nathalie</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>29700</v>
+        <v>33759</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>hüMRlFLs</t>
+          <t>XMspnSOhgr</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2804,21 +2924,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Louise</t>
+          <t>Josefine</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>80176</v>
+        <v>40378</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>keN3K</t>
+          <t>AEvhkn</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2828,144 +2948,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Miriam</t>
+          <t>Thorsten</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
         <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>93731</v>
+        <v>51727</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>U3ugtgX</t>
+          <t>8zrLbxs</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Dominik</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" t="n">
-        <v>14920</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>kTiowSä</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Beate</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>22</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" t="n">
-        <v>77261</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Zum7cj</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Carla</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>28</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20</v>
-      </c>
-      <c r="D26" t="n">
-        <v>55981</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>vgv0C</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Felix</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" t="n">
-        <v>18575</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>R7awMO</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Natalie</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>32</v>
-      </c>
-      <c r="C28" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" t="n">
-        <v>30200</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>owFkobEm0ä</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
         <v>1</v>
       </c>
     </row>
